--- a/output/exp21_stats/analysis_sumo_stats_duration.xlsx
+++ b/output/exp21_stats/analysis_sumo_stats_duration.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I844141\Documents\Unisinos\2019-2\TCCII\workspace\TCC-II\output\exp21_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8EF8E168-4F41-4683-A2C7-942E825BF883}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA8249-5288-4A94-B314-D7BFBA44C511}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="29730" yWindow="6900" windowWidth="12300" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p20_sumo_stats_duration" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,103 +618,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -1048,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,22 +3527,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Y9">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>B3=MIN(B$3:B$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y18">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>B12=MIN(B$12:B$18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:Y27">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>B21=MIN(B$21:B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:Y36">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>B30=MIN(B$30:B$36)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output/exp21_stats/analysis_sumo_stats_duration.xlsx
+++ b/output/exp21_stats/analysis_sumo_stats_duration.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I844141\Documents\Unisinos\2019-2\TCCII\workspace\TCC-II\output\exp21_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8EF8E168-4F41-4683-A2C7-942E825BF883}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43698DF-B8FF-4DDA-8F12-B06BEF918710}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p20_sumo_stats_duration" sheetId="1" r:id="rId1"/>
+    <sheet name="aggregateds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="25">
   <si>
     <t>exp1</t>
   </si>
@@ -87,11 +88,20 @@
   <si>
     <t>P80</t>
   </si>
+  <si>
+    <t>p40</t>
+  </si>
+  <si>
+    <t>p60</t>
+  </si>
+  <si>
+    <t>p80</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -524,6 +534,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,10 +594,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -618,61 +648,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -1048,11 +1024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,22 +3599,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Y9">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>B3=MIN(B$3:B$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y18">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>B12=MIN(B$12:B$18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:Y27">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>B21=MIN(B$21:B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:Y36">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>B30=MIN(B$30:B$36)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3685,4 +3661,545 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4134-B347-430B-B04D-68D0F7D89535}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" customWidth="1"/>
+    <col min="4" max="5" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="9" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="7.77734375" customWidth="1"/>
+    <col min="12" max="13" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="7.77734375" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>134.20059889473899</v>
+      </c>
+      <c r="C3" s="4">
+        <v>73.102353352562105</v>
+      </c>
+      <c r="D3" s="4">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4">
+        <v>626</v>
+      </c>
+      <c r="F3" s="4">
+        <v>150.86886178722901</v>
+      </c>
+      <c r="G3" s="4">
+        <v>71.103084716961206</v>
+      </c>
+      <c r="H3" s="4">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4">
+        <v>724</v>
+      </c>
+      <c r="J3" s="4">
+        <v>207.67734250140799</v>
+      </c>
+      <c r="K3" s="4">
+        <v>104.236079759144</v>
+      </c>
+      <c r="L3" s="4">
+        <v>34</v>
+      </c>
+      <c r="M3" s="4">
+        <v>908</v>
+      </c>
+      <c r="N3" s="4">
+        <v>273.98444102017697</v>
+      </c>
+      <c r="O3" s="4">
+        <v>112.113349226187</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129.15029324724199</v>
+      </c>
+      <c r="C4" s="4">
+        <v>67.107078983240996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>439</v>
+      </c>
+      <c r="F4" s="4">
+        <v>149.06549614291799</v>
+      </c>
+      <c r="G4" s="4">
+        <v>68.661257460285498</v>
+      </c>
+      <c r="H4" s="4">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4">
+        <v>560</v>
+      </c>
+      <c r="J4" s="4">
+        <v>207.148707759594</v>
+      </c>
+      <c r="K4" s="4">
+        <v>93.339652850254495</v>
+      </c>
+      <c r="L4" s="4">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1108</v>
+      </c>
+      <c r="N4" s="4">
+        <v>270.96355760332301</v>
+      </c>
+      <c r="O4" s="4">
+        <v>108.001655008114</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>131.91083773199301</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70.546398550663099</v>
+      </c>
+      <c r="D5" s="4">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4">
+        <v>494</v>
+      </c>
+      <c r="F5" s="4">
+        <v>155.22850133809101</v>
+      </c>
+      <c r="G5" s="4">
+        <v>76.136626960389293</v>
+      </c>
+      <c r="H5" s="4">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4">
+        <v>640</v>
+      </c>
+      <c r="J5" s="4">
+        <v>202.50003147839399</v>
+      </c>
+      <c r="K5" s="4">
+        <v>92.059340160906999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4">
+        <v>877</v>
+      </c>
+      <c r="N5" s="4">
+        <v>273.87013618077702</v>
+      </c>
+      <c r="O5" s="4">
+        <v>116.89401856918199</v>
+      </c>
+      <c r="P5">
+        <v>37</v>
+      </c>
+      <c r="Q5">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>133.83676902058201</v>
+      </c>
+      <c r="C6" s="4">
+        <v>73.190985209484396</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4">
+        <v>518</v>
+      </c>
+      <c r="F6" s="4">
+        <v>153.86773876364899</v>
+      </c>
+      <c r="G6" s="4">
+        <v>75.331689495184193</v>
+      </c>
+      <c r="H6" s="4">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4">
+        <v>630</v>
+      </c>
+      <c r="J6" s="4">
+        <v>213.87571722753</v>
+      </c>
+      <c r="K6" s="4">
+        <v>118.07978065623</v>
+      </c>
+      <c r="L6" s="4">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1049</v>
+      </c>
+      <c r="N6" s="4">
+        <v>270.99460335361999</v>
+      </c>
+      <c r="O6" s="4">
+        <v>110.500075640674</v>
+      </c>
+      <c r="P6">
+        <v>36</v>
+      </c>
+      <c r="Q6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>127.833634584059</v>
+      </c>
+      <c r="C7" s="4">
+        <v>69.183141609141401</v>
+      </c>
+      <c r="D7" s="4">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>538</v>
+      </c>
+      <c r="F7" s="4">
+        <v>154.23017459845499</v>
+      </c>
+      <c r="G7" s="4">
+        <v>78.254158639837399</v>
+      </c>
+      <c r="H7" s="4">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4">
+        <v>639</v>
+      </c>
+      <c r="J7" s="4">
+        <v>212.863906138012</v>
+      </c>
+      <c r="K7" s="4">
+        <v>123.57431244794</v>
+      </c>
+      <c r="L7" s="4">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1223</v>
+      </c>
+      <c r="N7" s="4">
+        <v>281.854772689519</v>
+      </c>
+      <c r="O7" s="4">
+        <v>127.58018620929001</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>130.08121533369101</v>
+      </c>
+      <c r="C8" s="4">
+        <v>68.170549339919305</v>
+      </c>
+      <c r="D8" s="4">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>450</v>
+      </c>
+      <c r="F8" s="4">
+        <v>152.78194200388401</v>
+      </c>
+      <c r="G8" s="4">
+        <v>79.536070273487198</v>
+      </c>
+      <c r="H8" s="4">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4">
+        <v>741</v>
+      </c>
+      <c r="J8" s="4">
+        <v>200.769371720116</v>
+      </c>
+      <c r="K8" s="4">
+        <v>92.468191888134996</v>
+      </c>
+      <c r="L8" s="4">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4">
+        <v>815</v>
+      </c>
+      <c r="N8" s="4">
+        <v>275.852376712904</v>
+      </c>
+      <c r="O8" s="4">
+        <v>113.334157661615</v>
+      </c>
+      <c r="P8">
+        <v>33</v>
+      </c>
+      <c r="Q8">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>127.356863488882</v>
+      </c>
+      <c r="C9" s="4">
+        <v>67.569382178252297</v>
+      </c>
+      <c r="D9" s="4">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4">
+        <v>497</v>
+      </c>
+      <c r="F9" s="4">
+        <v>158.70683907383</v>
+      </c>
+      <c r="G9" s="4">
+        <v>80.161301411274493</v>
+      </c>
+      <c r="H9" s="4">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4">
+        <v>646</v>
+      </c>
+      <c r="J9" s="4">
+        <v>206.85449078714001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>120.236693122153</v>
+      </c>
+      <c r="L9" s="4">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1087</v>
+      </c>
+      <c r="N9" s="4">
+        <v>273.65845254774598</v>
+      </c>
+      <c r="O9" s="4">
+        <v>107.629691401584</v>
+      </c>
+      <c r="P9">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>1031</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:E9">
+    <cfRule type="expression" dxfId="6" priority="15">
+      <formula>B3=MIN(B$3:B$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:M9">
+    <cfRule type="expression" dxfId="5" priority="16">
+      <formula>F3=MIN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:Q9">
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>N3=MIN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O9">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>B3=MIN(B$3:B$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/output/exp21_stats/analysis_sumo_stats_duration.xlsx
+++ b/output/exp21_stats/analysis_sumo_stats_duration.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I844141\Documents\Unisinos\2019-2\TCCII\workspace\TCC-II\output\exp21_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43698DF-B8FF-4DDA-8F12-B06BEF918710}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F47477-FD67-4ACD-90D3-2B4DFDEC6AB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p20_sumo_stats_duration" sheetId="1" r:id="rId1"/>
     <sheet name="aggregateds" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="39">
   <si>
     <t>exp1</t>
   </si>
@@ -96,6 +97,48 @@
   </si>
   <si>
     <t>p80</t>
+  </si>
+  <si>
+    <t>40\%</t>
+  </si>
+  <si>
+    <t>20\%</t>
+  </si>
+  <si>
+    <t>60\%</t>
+  </si>
+  <si>
+    <t>80\%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Reward Function</t>
+  </si>
+  <si>
+    <t>Queue Length</t>
+  </si>
+  <si>
+    <t>Vehicle Number</t>
+  </si>
+  <si>
+    <t>Vehicle Delay</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Delay with penalty residual queue</t>
+  </si>
+  <si>
+    <t>Delay with penalty wasted time</t>
+  </si>
+  <si>
+    <t>Actual Throughput and Max Queue Ratio</t>
   </si>
 </sst>
 </file>
@@ -3667,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E4134-B347-430B-B04D-68D0F7D89535}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4202,4 +4245,333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDD6476-AC48-4597-BEE7-860BA0CD8024}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <v>134.20059889473899</v>
+      </c>
+      <c r="C3" s="4">
+        <v>73.102353352562105</v>
+      </c>
+      <c r="D3" s="4">
+        <v>150.86886178722901</v>
+      </c>
+      <c r="E3" s="4">
+        <v>71.103084716961206</v>
+      </c>
+      <c r="F3" s="4">
+        <v>207.67734250140799</v>
+      </c>
+      <c r="G3" s="4">
+        <v>104.236079759144</v>
+      </c>
+      <c r="H3" s="4">
+        <v>273.98444102017697</v>
+      </c>
+      <c r="I3" s="4">
+        <v>112.113349226187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129.15029324724199</v>
+      </c>
+      <c r="C4" s="4">
+        <v>67.107078983240996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>149.06549614291799</v>
+      </c>
+      <c r="E4" s="4">
+        <v>68.661257460285498</v>
+      </c>
+      <c r="F4" s="4">
+        <v>207.148707759594</v>
+      </c>
+      <c r="G4" s="4">
+        <v>93.339652850254495</v>
+      </c>
+      <c r="H4" s="4">
+        <v>270.96355760332301</v>
+      </c>
+      <c r="I4" s="4">
+        <v>108.001655008114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>131.91083773199301</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70.546398550663099</v>
+      </c>
+      <c r="D5" s="4">
+        <v>155.22850133809101</v>
+      </c>
+      <c r="E5" s="4">
+        <v>76.136626960389293</v>
+      </c>
+      <c r="F5" s="4">
+        <v>202.50003147839399</v>
+      </c>
+      <c r="G5" s="4">
+        <v>92.059340160906999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>273.87013618077702</v>
+      </c>
+      <c r="I5" s="4">
+        <v>116.89401856918199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4">
+        <v>133.83676902058201</v>
+      </c>
+      <c r="C6" s="4">
+        <v>73.190985209484396</v>
+      </c>
+      <c r="D6" s="4">
+        <v>153.86773876364899</v>
+      </c>
+      <c r="E6" s="4">
+        <v>75.331689495184193</v>
+      </c>
+      <c r="F6" s="4">
+        <v>213.87571722753</v>
+      </c>
+      <c r="G6" s="4">
+        <v>118.07978065623</v>
+      </c>
+      <c r="H6" s="4">
+        <v>270.99460335361999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>110.500075640674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
+        <v>127.833634584059</v>
+      </c>
+      <c r="C7" s="4">
+        <v>69.183141609141401</v>
+      </c>
+      <c r="D7" s="4">
+        <v>154.23017459845499</v>
+      </c>
+      <c r="E7" s="4">
+        <v>78.254158639837399</v>
+      </c>
+      <c r="F7" s="4">
+        <v>212.863906138012</v>
+      </c>
+      <c r="G7" s="4">
+        <v>123.57431244794</v>
+      </c>
+      <c r="H7" s="4">
+        <v>281.854772689519</v>
+      </c>
+      <c r="I7" s="4">
+        <v>127.58018620929001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>130.08121533369101</v>
+      </c>
+      <c r="C8" s="4">
+        <v>68.170549339919305</v>
+      </c>
+      <c r="D8" s="4">
+        <v>152.78194200388401</v>
+      </c>
+      <c r="E8" s="4">
+        <v>79.536070273487198</v>
+      </c>
+      <c r="F8" s="4">
+        <v>200.769371720116</v>
+      </c>
+      <c r="G8" s="4">
+        <v>92.468191888134996</v>
+      </c>
+      <c r="H8" s="4">
+        <v>275.852376712904</v>
+      </c>
+      <c r="I8" s="4">
+        <v>113.334157661615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4">
+        <v>127.356863488882</v>
+      </c>
+      <c r="C9" s="4">
+        <v>67.569382178252297</v>
+      </c>
+      <c r="D9" s="4">
+        <v>158.70683907383</v>
+      </c>
+      <c r="E9" s="4">
+        <v>80.161301411274493</v>
+      </c>
+      <c r="F9" s="4">
+        <v>206.85449078714001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>120.236693122153</v>
+      </c>
+      <c r="H9" s="4">
+        <v>273.65845254774598</v>
+      </c>
+      <c r="I9" s="4">
+        <v>107.629691401584</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:I9">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>B3=MIN(B$3:B$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:G9">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>D3=MIN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:I9">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>H3=MIN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>